--- a/iphones.xlsx
+++ b/iphones.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Iphones" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Iphone 14</t>
+  </si>
+  <si>
+    <t>Iphone 14 Pro</t>
   </si>
 </sst>
 </file>
@@ -351,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -370,34 +371,16 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>